--- a/Pokemon_Server/data/pkm_move_targets.xlsx
+++ b/Pokemon_Server/data/pkm_move_targets.xlsx
@@ -52,18 +52,9 @@
     <t>ally</t>
   </si>
   <si>
-    <t>The user's ally (if any).</t>
-  </si>
-  <si>
-    <t>User's field</t>
-  </si>
-  <si>
     <t>users-field</t>
   </si>
   <si>
-    <t>The user's side of the field.  Affects the user and its ally (if any).</t>
-  </si>
-  <si>
     <t>User or ally</t>
   </si>
   <si>
@@ -73,9 +64,6 @@
     <t>Either the user or its ally, selected by the trainer.</t>
   </si>
   <si>
-    <t>Opponent's field</t>
-  </si>
-  <si>
     <t>opponents-field</t>
   </si>
   <si>
@@ -149,6 +137,18 @@
   </si>
   <si>
     <t>Every Pokémon on the field.</t>
+  </si>
+  <si>
+    <t>The user''s ally (if any).</t>
+  </si>
+  <si>
+    <t>User''s field</t>
+  </si>
+  <si>
+    <t>The user''s side of the field.  Affects the user and its ally (if any).</t>
+  </si>
+  <si>
+    <t>Opponent''s field</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,13 +569,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,13 +597,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,13 +611,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,13 +625,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,13 +639,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,13 +667,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +709,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
